--- a/data/outputs/management_altmetric/93.xlsx
+++ b/data/outputs/management_altmetric/93.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE24"/>
+  <dimension ref="A1:CF24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1033,6 +1038,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1288,6 +1296,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1535,6 +1546,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1778,6 +1792,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2028,6 +2045,9 @@
       </c>
       <c r="CE6" t="n">
         <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2242,6 +2262,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2485,6 +2508,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2731,6 +2757,9 @@
       </c>
       <c r="CE9" t="n">
         <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="10">
@@ -2969,6 +2998,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3210,6 +3242,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3451,6 +3486,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3704,6 +3742,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3955,6 +3996,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4198,6 +4242,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4451,6 +4498,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4698,6 +4748,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4939,6 +4992,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5154,6 +5210,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5401,6 +5460,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5642,6 +5704,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5893,6 +5958,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6138,6 +6206,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6383,6 +6454,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
